--- a/files_Basics-of-web-technologies/BasicsOfWebTechologies_Evaluation.xlsx
+++ b/files_Basics-of-web-technologies/BasicsOfWebTechologies_Evaluation.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp600nn\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D14945F-F7F3-431B-898D-776F4F806BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F10DEC-1476-4FA3-9FAC-DF864EC911C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Логины Группы Оценки" sheetId="1" r:id="rId1"/>
     <sheet name="Данные" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="78">
   <si>
     <t>Тема сайта</t>
   </si>
@@ -306,6 +306,9 @@
   </si>
   <si>
     <t>Экономика предприятия</t>
+  </si>
+  <si>
+    <t>Петров</t>
   </si>
 </sst>
 </file>
@@ -1194,7 +1197,7 @@
       <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1652,7 +1655,7 @@
       <c r="C6" s="13"/>
       <c r="D6" s="6"/>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>22</v>
